--- a/WebRoot/template/机油价格表--模版.xlsx
+++ b/WebRoot/template/机油价格表--模版.xlsx
@@ -2,52 +2,88 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="16095" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>产品编号</t>
-  </si>
-  <si>
-    <t>平台标价</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升数</t>
+  </si>
+  <si>
+    <t>标准批发价格</t>
+  </si>
+  <si>
+    <t>平台公示价</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,29 +96,45 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -90,7 +142,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -387,23 +439,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="1" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -411,4 +481,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>